--- a/Documents/Audit-SEO.xlsx
+++ b/Documents/Audit-SEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\OpenClassroom\JeremyTardini_4_19072021\Starting website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jerem\Documents\OpenClassroom\JeremyTardini_4_19072021\Starting website\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17529649-B04D-4AB0-AFFC-84F34E9F292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BA6EA-4B50-4541-91B9-F8FB7DAE58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page Index" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>Catégorie</t>
   </si>
@@ -70,9 +70,6 @@
     <t xml:space="preserve">Cet pratique ne reponds pas au WCAG et peut etre considére comme tentative de spam </t>
   </si>
   <si>
-    <t xml:space="preserve"> Definir a nom en corrélation avec les nouvelles page du site</t>
-  </si>
-  <si>
     <t>Suppression div l.47</t>
   </si>
   <si>
@@ -82,18 +79,12 @@
     <t>Page /2 --&gt; Contact l.50</t>
   </si>
   <si>
-    <t>eviter ce genre de pratique</t>
-  </si>
-  <si>
     <t>Usage &lt;article&gt; &lt;section&gt; etc ..</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Perte de performance </t>
-  </si>
-  <si>
     <t>Image non adapté a leur conteneurs</t>
   </si>
   <si>
@@ -109,15 +100,9 @@
     <t>Mauvaise description du ALT</t>
   </si>
   <si>
-    <t>Changemen de description</t>
-  </si>
-  <si>
     <t>Création d'une nouvelle page "service"</t>
   </si>
   <si>
-    <t>Utilisation des balise H1 H2 sur les différentespages du site</t>
-  </si>
-  <si>
     <t>Optimisation des performances</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>Modification profonde/changement d'architecture</t>
   </si>
   <si>
-    <t xml:space="preserve">Mauvaise indexation par google Bot </t>
-  </si>
-  <si>
     <t>Google Bot ne comprend pas la thématique de la page car le &lt;title&gt; est mal enregistré</t>
   </si>
   <si>
@@ -202,27 +184,12 @@
     <t>Changement du &lt;title&gt; sur index.html et page.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Page affilié a du spam </t>
-  </si>
-  <si>
     <t>Balise &lt;meta&gt; contenant un nombre de keywords trop important</t>
   </si>
   <si>
-    <t>Evite d'intégre ce genre de balise</t>
-  </si>
-  <si>
-    <t>Supression des balises &lt;meta&gt; conerné</t>
-  </si>
-  <si>
     <t>Aucun balise strong pour mettre en avant les keywords de la page</t>
   </si>
   <si>
-    <t>Essaye de mettre en place des keywords avec balise &lt;strong&gt;</t>
-  </si>
-  <si>
-    <t>encadrement par la balise &lt;strong&gt; des keywords dans les &lt;p&gt;</t>
-  </si>
-  <si>
     <t>réaliser des pages de 400 lignes et trié par sous repertoire le contenu</t>
   </si>
   <si>
@@ -256,9 +223,6 @@
     <t>Mauvais nom de menu</t>
   </si>
   <si>
-    <t>probleme d'affichage menu</t>
-  </si>
-  <si>
     <t>corriger le css</t>
   </si>
   <si>
@@ -274,9 +238,6 @@
     <t>https://optimiz.me/lindex-mobile-first-de-google-le-guide-complet/ ; https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
   </si>
   <si>
-    <t>Suppression des liens dans le footer</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
   </si>
   <si>
@@ -313,18 +274,6 @@
     <t>Accessibilité/SEO</t>
   </si>
   <si>
-    <t>Fichier Bootsrap lourd</t>
-  </si>
-  <si>
-    <t>Perte de performance lors du chargement des pages</t>
-  </si>
-  <si>
-    <t>Simplifier le code CSS afin d'eviter le chargement d'informations non néccessaire</t>
-  </si>
-  <si>
-    <t>Transformation des fichiers Bootstrap en CSS.</t>
-  </si>
-  <si>
     <t>Verifier le fonctionement des liens sur un site web</t>
   </si>
   <si>
@@ -334,12 +283,6 @@
     <t>Suppression jusqu’à réactivation des liens.</t>
   </si>
   <si>
-    <t>Corriger les redirection vers Bootstrap, et-line.css etc …</t>
-  </si>
-  <si>
-    <t>Modification profonde et changement d'architecture</t>
-  </si>
-  <si>
     <t>Le nom n'est pas spécifique à la redirection</t>
   </si>
   <si>
@@ -355,9 +298,6 @@
     <t>https://www.digitalcorsaire.com/page-erreur-404-liens-morts/#:~:text=Autrement%20dit%2C%20ce%20sont%20des,jour%20sans%20redirection%20301%2C%20etc.</t>
   </si>
   <si>
-    <t>Insertion : &lt;meta name="robots" content="index" /&gt; dans le &lt;Head&gt;</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
   </si>
   <si>
@@ -385,22 +325,49 @@
     <t>Manque de visibilité</t>
   </si>
   <si>
-    <t>Réaliser des pages de 400 lignes et trié par sous repertoire le contenu</t>
-  </si>
-  <si>
-    <t>Favoriser le partage de lien (site partenaire) et reservé une emplacement adéquat dans les différentes informatiosn du site</t>
-  </si>
-  <si>
-    <t>Nos partenaires sont placé dans le footer et donc il y a un manque de pertinance face à l'impact des liens dans le SEO</t>
-  </si>
-  <si>
-    <t>L'index reprend plusieurs themes au lieu d'étre spécifique</t>
-  </si>
-  <si>
-    <t>https://optimiz.me/faire-thematique-unique-page/</t>
-  </si>
-  <si>
-    <t>Inspecteur d'éléments Google (performance)</t>
+    <t>Mettre en place des keywords avec balise &lt;strong&gt;</t>
+  </si>
+  <si>
+    <t>Eviter d'intégre ce genre de balise</t>
+  </si>
+  <si>
+    <t>Eviter ce genre de pratique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Definir un nom en corrélation avec les nouvelles pages du site</t>
+  </si>
+  <si>
+    <t>Problème d'affichage menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaise indexation par Google Bot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page affiliée à du spam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perte de performances </t>
+  </si>
+  <si>
+    <t>Encadrement par la balise &lt;strong&gt; des keywords dans les &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>Supression des balises &lt;meta&gt; conernées</t>
+  </si>
+  <si>
+    <t>Insertion : &lt;meta name="robots" content="index,follow" /&gt; dans le &lt;Head&gt;</t>
+  </si>
+  <si>
+    <t>Utilisation des balise &lt;H1&gt; &lt;H2&gt; sur les différentes pages du site</t>
+  </si>
+  <si>
+    <t>Suppression des liens dans le &lt;Footer&gt;</t>
+  </si>
+  <si>
+    <t>Changement de description</t>
+  </si>
+  <si>
+    <t>Corriger les redirections vers Bootstrap, et-line.css etc …</t>
   </si>
 </sst>
 </file>
@@ -464,7 +431,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,12 +468,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -809,13 +770,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -917,27 +875,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,12 +902,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1191,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1205,22 +1166,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -1245,14 +1206,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1274,814 +1235,772 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F13" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="F21" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" s="30" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:26" s="35" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:26" s="31" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:26" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-    </row>
-    <row r="24" spans="1:26" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-    </row>
-    <row r="25" spans="1:26" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:26" s="30" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:26" s="30" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="42"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:26" s="30" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+    </row>
+    <row r="24" spans="1:26" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+    </row>
+    <row r="25" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="2"/>
     </row>
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+    </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3027,9 +2946,8 @@
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{CF9A5849-550B-4DB8-B908-C9AC9E096A19}"/>
@@ -3051,11 +2969,9 @@
     <hyperlink ref="F21" r:id="rId17" xr:uid="{A03B8E50-F5AB-40E3-A4AB-B7C7F6E8199E}"/>
     <hyperlink ref="F19" r:id="rId18" xr:uid="{C2A97E6F-81C2-4ADB-BA9C-509D59AD87FD}"/>
     <hyperlink ref="F20" r:id="rId19" xr:uid="{486CB443-D2DA-4A34-A91F-F3610C424C57}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{42900925-03B2-45B7-91B5-5A9C96DB580F}"/>
-    <hyperlink ref="F25" r:id="rId21" xr:uid="{9BD1A286-3B10-4FCE-ACE1-3EC324E249CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId22"/>
+  <pageSetup orientation="landscape" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3076,136 +2992,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="16"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="22"/>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Audit-SEO.xlsx
+++ b/Documents/Audit-SEO.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jerem\Documents\OpenClassroom\JeremyTardini_4_19072021\Starting website\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\OpenClassroom\JeremyTardini_4_19072021\Starting website\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BA6EA-4B50-4541-91B9-F8FB7DAE58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF88725F-42FB-4386-AD7C-0071ED3B9B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Page Contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Catégorie</t>
   </si>
@@ -100,21 +99,6 @@
     <t>Mauvaise description du ALT</t>
   </si>
   <si>
-    <t>Création d'une nouvelle page "service"</t>
-  </si>
-  <si>
-    <t>Optimisation des performances</t>
-  </si>
-  <si>
-    <t>Non cohérence entre langage utilisé et utilité du site</t>
-  </si>
-  <si>
-    <t>Privilégier du HTML/CSS</t>
-  </si>
-  <si>
-    <t>Transformation des script JS en CSS</t>
-  </si>
-  <si>
     <t>Site non responsive</t>
   </si>
   <si>
@@ -133,27 +117,9 @@
     <t>Adaptation responsive</t>
   </si>
   <si>
-    <t>Manque de notoriété des partenaires</t>
-  </si>
-  <si>
-    <t>Nos partenaires sont placé dans le footer et donc manque de pertinance face a l'impact des liens dans le SEO</t>
-  </si>
-  <si>
-    <t>favoriser le partage de lien (site partenaire) et reservé une emplacement adéquat dans les différentes informatiosn du site</t>
-  </si>
-  <si>
-    <t>Création d'un article/section sur pages "service"</t>
-  </si>
-  <si>
     <t>Div remplie de keywords invisible</t>
   </si>
   <si>
-    <t>Thématiques multiples dans l'index</t>
-  </si>
-  <si>
-    <t>l'index reprend plusieurs themes au lieu d'étre spécifique</t>
-  </si>
-  <si>
     <t>Définir une héarchie d'information des titres</t>
   </si>
   <si>
@@ -172,9 +138,6 @@
     <t>Aucun balise semantique pour definir les articles et autre</t>
   </si>
   <si>
-    <t>Modification profonde/changement d'architecture</t>
-  </si>
-  <si>
     <t>Google Bot ne comprend pas la thématique de la page car le &lt;title&gt; est mal enregistré</t>
   </si>
   <si>
@@ -190,9 +153,6 @@
     <t>Aucun balise strong pour mettre en avant les keywords de la page</t>
   </si>
   <si>
-    <t>réaliser des pages de 400 lignes et trié par sous repertoire le contenu</t>
-  </si>
-  <si>
     <t>Mauvaise hiérarchisation du site</t>
   </si>
   <si>
@@ -257,9 +217,6 @@
   </si>
   <si>
     <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/</t>
-  </si>
-  <si>
-    <t>SEO / ACCESSIBILITE</t>
   </si>
   <si>
     <t>Avec la texture ainsi que la charte graphique choisie les informations manque de visibilité</t>
@@ -431,7 +388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,18 +399,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA7A7"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -500,13 +445,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -522,7 +484,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -531,21 +493,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -561,161 +508,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -770,83 +569,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,13 +597,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,38 +613,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,6 +643,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1152,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1166,22 +901,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -1206,14 +941,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1235,513 +970,513 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="B12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="45" t="s">
+      <c r="F19" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:26" s="10" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:26" s="34" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:26" s="30" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-    </row>
-    <row r="24" spans="1:26" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-    </row>
-    <row r="25" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:26" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="41"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:26" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+    </row>
+    <row r="24" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="62"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -2973,157 +2708,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId20"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA310B4F-9D60-45CF-98D9-28B8FF03292C}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="5" width="43.77734375" customWidth="1"/>
-    <col min="6" max="6" width="67.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="15"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>